--- a/data/age_coefficients_and_var_May152019.xlsx
+++ b/data/age_coefficients_and_var_May152019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Barry_Sidhya_ISA Research Paper/2017 data model/2017_new input files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh4\PycharmProjects\Tracer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F118A5F9-749F-C942-8D64-8A76DCA7C895}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD59DCCB-C47F-4513-8560-1CAEEDA5B6EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="28800" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficients" sheetId="2" r:id="rId1"/>
@@ -540,13 +540,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,7 +577,7 @@
         <v>-0.1703771</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -594,7 +594,7 @@
         <v>-0.72307220000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -622,18 +622,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -660,21 +660,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.13867155440103784</v>
+        <f>0.75*0.138671554401038</f>
+        <v>0.10400366580077851</v>
       </c>
       <c r="C4" s="2">
-        <v>0.15602724121127054</v>
+        <f>0.75*0.156027241211271</f>
+        <v>0.11702043090845327</v>
       </c>
       <c r="D4" s="2">
-        <v>0.14754592505386246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <f>0.75*0.147545925053862</f>
+        <v>0.11065944379039649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>1.526E-3</v>
       </c>
@@ -685,21 +688,24 @@
         <v>1.6105E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.23924955590345409</v>
+        <f>0.75*0.239249555903454</f>
+        <v>0.17943716692759051</v>
       </c>
       <c r="C6" s="2">
-        <v>0.26159940749168376</v>
+        <f>0.75*0.261599407491684</f>
+        <v>0.19619955561876298</v>
       </c>
       <c r="D6" s="2">
-        <v>0.22551042104523686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <f>0.75*0.225510421045237</f>
+        <v>0.16913281578392775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>9.4687E-3</v>
       </c>
@@ -728,9 +734,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>12</v>
       </c>
@@ -741,13 +747,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>11</v>
       </c>
@@ -767,7 +773,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I4" s="5">
         <v>1.526E-3</v>
       </c>
@@ -779,7 +785,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="G5" t="s">
         <v>11</v>
@@ -800,7 +806,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="I6" s="5">
         <v>9.4687E-3</v>
@@ -813,10 +819,10 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="G8" t="s">
         <v>20</v>
@@ -836,7 +842,7 @@
         <v>0.15602724121127054</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="I9" s="5">
         <v>1.7015000000000001E-3</v>
@@ -848,7 +854,7 @@
         <v>1.7015000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="G10" t="s">
         <v>20</v>
@@ -868,7 +874,7 @@
         <v>0.26159940749168376</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I11" s="5">
         <v>1.05577E-2</v>
       </c>
@@ -879,10 +885,10 @@
         <v>1.05577E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="G13" t="s">
         <v>21</v>
@@ -902,7 +908,7 @@
         <v>0.14754592505386246</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="I14" s="5">
         <v>1.6105E-3</v>
@@ -914,7 +920,7 @@
         <v>1.6105E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="G15" t="s">
         <v>21</v>
@@ -934,7 +940,7 @@
         <v>0.22551042104523686</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="I16" s="5">
         <v>9.9926000000000008E-3</v>
@@ -946,7 +952,7 @@
         <v>9.9926000000000008E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
